--- a/TestData/OneForAll/createWaveWithHost.xlsx
+++ b/TestData/OneForAll/createWaveWithHost.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pranav Pawar\PycharmProjects\RMM_DataDriven\TestData\allInOne\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pranav Pawar\PycharmProjects\RMM_DataDriven\TestData\OneForAll\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ECD27E0-E08F-4270-AA09-0D8442BFF468}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEE097B4-3F5A-44E9-9745-8B1E4152495B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -107,13 +107,13 @@
     <t>Autoprovision</t>
   </si>
   <si>
-    <t>First Flow</t>
-  </si>
-  <si>
     <t>psp-MyLinFirstFlow-tgt1</t>
   </si>
   <si>
     <t>psp-MyLinFirstFlow-src1</t>
+  </si>
+  <si>
+    <t>Trial 3</t>
   </si>
 </sst>
 </file>
@@ -565,7 +565,7 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -577,7 +577,7 @@
         <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F3" t="s">
         <v>20</v>
@@ -592,7 +592,7 @@
         <v>21</v>
       </c>
       <c r="J3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
